--- a/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_01_02 13_18_22.xlsx
+++ b/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_01_02 13_18_22.xlsx
@@ -4565,13 +4565,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DF161DC-7AA5-4256-9293-42571BC0666F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58EFC95-8018-49D2-8057-D6FC303AB93C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{412F43F6-BC5D-4860-8C16-D2E3E28ECD2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22280B38-5ED3-409A-8A28-400C7805E8B4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E66EE7-0B84-4072-9A79-91AD354BA9E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A689D0-BAED-4271-86DC-B38B9E3FD3AF}"/>
 </file>
--- a/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_01_02 13_18_22.xlsx
+++ b/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_01_02 13_18_22.xlsx
@@ -4565,13 +4565,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58EFC95-8018-49D2-8057-D6FC303AB93C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{723688A2-3589-430F-91F6-DF0766B1E24C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22280B38-5ED3-409A-8A28-400C7805E8B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F793C2F-45BA-4BFD-B039-A30168F1F5A1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1A689D0-BAED-4271-86DC-B38B9E3FD3AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EAA1CF8-2EC2-485C-BDAD-E7756D89B899}"/>
 </file>